--- a/biology/Zoologie/Idiosoma_montanum/Idiosoma_montanum.xlsx
+++ b/biology/Zoologie/Idiosoma_montanum/Idiosoma_montanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Idiosoma montanum est une espèce d'araignées mygalomorphes de la famille des Idiopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idiosoma montanum est une espèce d'araignées mygalomorphes de la famille des Idiopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 6,8 mm de long sur 5,4 mm et l'abdomen 5,5 mm de long sur 4,5 mm et la carapace de la femelle paratype mesure 9,6 mm de long sur 7,7 mm et l'abdomen 15,3 mm de long sur 11,0 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 6,8 mm de long sur 5,4 mm et l'abdomen 5,5 mm de long sur 4,5 mm et la carapace de la femelle paratype mesure 9,6 mm de long sur 7,7 mm et l'abdomen 15,3 mm de long sur 11,0 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Faulder, 1985 : Some species of Aganippe (Araneae: Ctenizidae) from eastern Australia. Proceedings of the Linnean Society of New South Wales, vol. 108, p. 83-96 (texte intégral).</t>
         </is>
